--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed1/result_data_KNN.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.338000000000001</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.368</v>
+        <v>-12.065</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.965999999999999</v>
+        <v>5.117</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.359999999999999</v>
+        <v>-7.776999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.47</v>
+        <v>-11.099</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.932</v>
+        <v>-8.061</v>
       </c>
     </row>
     <row r="14">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.558</v>
+        <v>4.808999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.16</v>
+        <v>-12.708</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.406</v>
+        <v>-11.951</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.12</v>
+        <v>-12.31</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.843999999999999</v>
+        <v>5.293000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.87</v>
+        <v>5.213</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.99</v>
+        <v>-7.290000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.656</v>
+        <v>-13.117</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.768</v>
+        <v>7.084999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.252000000000001</v>
+        <v>9.178000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.782</v>
+        <v>-11.873</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.91</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="41">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.06</v>
+        <v>-12.31</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.656000000000001</v>
+        <v>-7.744</v>
       </c>
     </row>
     <row r="45">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.666</v>
+        <v>-12.304</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.906</v>
+        <v>-11.936</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.942</v>
+        <v>5.078999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>4.882000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.184</v>
+        <v>-10.775</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.282</v>
+        <v>-11.18</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.956</v>
+        <v>5.548</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.482</v>
+        <v>-11.857</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.586</v>
+        <v>-13.317</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.254</v>
+        <v>-13.331</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.930000000000001</v>
+        <v>-8.523999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.209999999999999</v>
+        <v>-7.408999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.304</v>
+        <v>-11.375</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.134</v>
+        <v>5.828999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
